--- a/chip_specs.xlsx
+++ b/chip_specs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="11925" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="11925" windowHeight="11040" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="memory" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="worflow" sheetId="6" r:id="rId8"/>
     <sheet name="area" sheetId="4" r:id="rId9"/>
     <sheet name="power" sheetId="5" r:id="rId10"/>
+    <sheet name="normalization" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="163">
   <si>
     <t>input buffer</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -605,6 +606,79 @@
     <t xml:space="preserve">time </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>conv5_8_2</t>
+  </si>
+  <si>
+    <t>conv5_8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5_8_1</t>
+  </si>
+  <si>
+    <t>conv5_8_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5_6_1</t>
+  </si>
+  <si>
+    <t>conv5_6_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5_6_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5_6_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv5_6_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max power eff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>min power eff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to 28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm min power eff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>norm max power eff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3573,6 +3647,2074 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>8-2-bit </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$C$46:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1155584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1155584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1303040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1597952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3B3-433D-AC2A-B8F075D25B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$D$46:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1916928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3B3-433D-AC2A-B8F075D25B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:overlap val="100"/>
+        <c:axId val="1201377808"/>
+        <c:axId val="1201379472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1201377808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201379472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1201379472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201377808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>6-2-bit </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$C$50:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>925184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1303040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1597952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-413B-403E-A3CF-85A3EF59592B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$D$50:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1437696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>718848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-413B-403E-A3CF-85A3EF59592B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:overlap val="100"/>
+        <c:axId val="1201377808"/>
+        <c:axId val="1201379472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1201377808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201379472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1201379472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201377808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>8-1-bit </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$C$54:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1081856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1303040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1303040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1597952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D17E-48F7-9021-51484338A0A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$D$54:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D17E-48F7-9021-51484338A0A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:overlap val="100"/>
+        <c:axId val="1201377808"/>
+        <c:axId val="1201379472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1201377808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201379472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1201379472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201377808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2321216697227921E-2"/>
+          <c:y val="9.4465148378191838E-2"/>
+          <c:w val="0.94049844796797666"/>
+          <c:h val="0.76730604326633078"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>figures!$D$29:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-124.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-98.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-45.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1999000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figures!$E$29:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-678F-4E89-84CF-4B897B28A6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>figures!$D$29:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-124.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-98.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-45.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1999000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figures!$F$29:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-678F-4E89-84CF-4B897B28A6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>figures!$D$29:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-124.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-98.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-45.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1999000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figures!$G$29:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-678F-4E89-84CF-4B897B28A6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>figures!$D$29:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-124.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-111.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-98.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-58.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-45.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.1999000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.598999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>46.798999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figures!$H$29:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-678F-4E89-84CF-4B897B28A6A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="42000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="68000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="81000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="69000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="43000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="18000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1065949168"/>
+        <c:axId val="1065931696"/>
+        <c:axId val="1059100128"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1065949168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065931696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1065931696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1065949168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1059100128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1065931696"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>6-1-bit </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$C$58:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>851456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>925184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1303040</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1597952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F29A-4685-98FE-E09E5A144E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>worflow!$D$58:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>718848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>718848</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>958464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>958464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F29A-4685-98FE-E09E5A144E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:overlap val="100"/>
+        <c:axId val="1201377808"/>
+        <c:axId val="1201379472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1201377808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201379472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1201379472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1201377808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4409,7 +6551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4972,7 +7114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5372,1027 +7514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.2321216697227921E-2"/>
-          <c:y val="9.4465148378191838E-2"/>
-          <c:w val="0.94049844796797666"/>
-          <c:h val="0.76730604326633078"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:surface3DChart>
-        <c:wireframe val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="58000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>figures!$D$29:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-124.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-111.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-85.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-45.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-32.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.598999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.798999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.198999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>figures!$E$29:$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-678F-4E89-84CF-4B897B28A6A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>figures!$D$29:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-124.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-111.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-85.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-45.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-32.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.598999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.798999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.198999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>figures!$F$29:$F$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1321</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1362</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1271</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>911</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-678F-4E89-84CF-4B897B28A6A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>figures!$D$29:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-124.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-111.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-85.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-45.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-32.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.598999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.798999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.198999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>figures!$G$29:$G$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1182</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1436</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1511</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1397</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1116</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-678F-4E89-84CF-4B897B28A6A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="58000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:cat>
-            <c:numRef>
-              <c:f>figures!$D$29:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>-138</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-124.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-111.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-98.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-85.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-72</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-58.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-45.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-32.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.598999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46.798999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.198999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>86.399000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>112.79</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>figures!$H$29:$H$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1380</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1077</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-678F-4E89-84CF-4B897B28A6A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:bandFmts>
-          <c:bandFmt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="42000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="55000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="68000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="93000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="69000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="56000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="43000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="30000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="11"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="18000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="12"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="13"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="92000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-          <c:bandFmt>
-            <c:idx val="14"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln/>
-              <a:effectLst/>
-              <a:sp3d/>
-            </c:spPr>
-          </c:bandFmt>
-        </c:bandFmts>
-        <c:axId val="1065949168"/>
-        <c:axId val="1065931696"/>
-        <c:axId val="1059100128"/>
-      </c:surface3DChart>
-      <c:catAx>
-        <c:axId val="1065949168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0_ " sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1065931696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1065931696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1065949168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="1059100128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1065931696"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7003,7 +8125,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7527,7 +8649,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7793,7 +8915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -11269,10 +12391,13 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -11346,9 +12471,12 @@
 </file>
 
 <file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11383,9 +12511,12 @@
 </file>
 
 <file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11420,13 +12551,10 @@
 </file>
 
 <file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -11500,6 +12628,160 @@
 </file>
 
 <file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -14342,6 +15624,2026 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14861,7 +18163,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15381,8 +18683,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15586,6 +18888,511 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -15884,7 +19691,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16404,7 +20211,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16924,7 +20731,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17427,512 +21234,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22521,6 +25823,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="圖表 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="圖表 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="圖表 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="圖表 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23015,7 +26445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -23424,11 +26854,222 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" activeCellId="1" sqref="E16 V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>12.25</v>
+      </c>
+      <c r="F6">
+        <v>2.4</v>
+      </c>
+      <c r="G6">
+        <v>1.87</v>
+      </c>
+      <c r="H6">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>278</v>
+      </c>
+      <c r="F7">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8">
+        <v>0.15</v>
+      </c>
+      <c r="F8">
+        <v>0.27</v>
+      </c>
+      <c r="G8">
+        <v>0.26</v>
+      </c>
+      <c r="H8">
+        <f>L4*L5</f>
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9">
+        <v>0.35</v>
+      </c>
+      <c r="F9">
+        <v>2.6</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <f>M4*M5</f>
+        <v>2.4319999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="2">
+        <f>E6/($E$5*$E$5/28/28)</f>
+        <v>2.2731360946745562</v>
+      </c>
+      <c r="F10" s="2">
+        <f>F6/($F$5*$F$5/28/28)</f>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <f>G6</f>
+        <v>1.87</v>
+      </c>
+      <c r="H10" s="2">
+        <f>H6/($H$5*$H$5/28/28)</f>
+        <v>1.5099259259259261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="2">
+        <f>E7/($E$5*$E$5/28/28)</f>
+        <v>51.586272189349117</v>
+      </c>
+      <c r="F11" s="2">
+        <f>F7/($F$5*$F$5/28/28)</f>
+        <v>37.24</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G13" si="0">G7</f>
+        <v>44</v>
+      </c>
+      <c r="H11" s="2">
+        <f>H7/($H$5*$H$5/28/28)</f>
+        <v>48.975802469135807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E8*($E$5*$E$5/28/28)</f>
+        <v>0.80835459183673464</v>
+      </c>
+      <c r="F12" s="2">
+        <f>F8*($F$5*$F$5/28/28)</f>
+        <v>0.55102040816326536</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H8*($H$5*$H$5/28/28)</f>
+        <v>1.570408163265306</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="2">
+        <f>E9*($E$5*$E$5/28/28)</f>
+        <v>1.886160714285714</v>
+      </c>
+      <c r="F13" s="2">
+        <f>F9*($F$5*$F$5/28/28)</f>
+        <v>5.3061224489795924</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <f>H9*($H$5*$H$5/28/28)</f>
+        <v>25.126530612244895</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="C60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
@@ -24474,10 +28115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AQ72"/>
+  <dimension ref="A2:AQ92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN75" activeCellId="1" sqref="AI75 AN75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32554,6 +36195,2262 @@
         <v>958464</v>
       </c>
     </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" s="8">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>64</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>256</v>
+      </c>
+      <c r="S74" s="6">
+        <f>_xlfn.CEILING.MATH(R74*I74/16)</f>
+        <v>16</v>
+      </c>
+      <c r="T74">
+        <v>13</v>
+      </c>
+      <c r="U74">
+        <v>13</v>
+      </c>
+      <c r="V74">
+        <v>256</v>
+      </c>
+      <c r="W74" s="6">
+        <f t="shared" ref="W74:W77" si="59">_xlfn.CEILING.MATH(S74/F74)</f>
+        <v>8</v>
+      </c>
+      <c r="X74" s="6">
+        <f t="shared" ref="X74:X77" si="60">_xlfn.CEILING.MATH(T74/B74)*_xlfn.CEILING.MATH(U74/C74)</f>
+        <v>1</v>
+      </c>
+      <c r="Y74" s="6">
+        <f t="shared" ref="Y74:Y77" si="61">$D$2/P74</f>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="6">
+        <f t="shared" ref="Z74:Z77" si="62">_xlfn.CEILING.MATH(V74/O74)</f>
+        <v>4</v>
+      </c>
+      <c r="AA74" s="6">
+        <f t="shared" ref="AA74:AA77" si="63">2*(J74/16)*O74*C74*B74*P74</f>
+        <v>21632</v>
+      </c>
+      <c r="AB74" s="6">
+        <f t="shared" ref="AB74:AB77" si="64">Q74*C74*B74*O74*P74</f>
+        <v>43264</v>
+      </c>
+      <c r="AC74" s="6">
+        <f t="shared" ref="AC74:AC77" si="65">2*(D74*E74*G74*P74*F74)</f>
+        <v>28800</v>
+      </c>
+      <c r="AD74" s="6">
+        <f t="shared" ref="AD74:AD77" si="66">2*(O74*N74*M74*H74*F74)</f>
+        <v>4608</v>
+      </c>
+      <c r="AE74" s="6">
+        <f t="shared" ref="AE74:AE77" si="67">2*E74*F74*G74*K74</f>
+        <v>480</v>
+      </c>
+      <c r="AF74" s="6">
+        <f t="shared" ref="AF74:AF77" si="68">2*L74*M74*N74*F74</f>
+        <v>144</v>
+      </c>
+      <c r="AG74" s="6">
+        <f t="shared" ref="AG74:AG77" si="69">B74*L74*Q74</f>
+        <v>52</v>
+      </c>
+      <c r="AH74" s="6">
+        <f t="shared" ref="AH74:AH77" si="70">AB74+AC74+AD74</f>
+        <v>76672</v>
+      </c>
+      <c r="AI74" s="6">
+        <f t="shared" ref="AI74:AI77" si="71">AA74*X74*Y74*Z74+AC74*W74*X74*Y74*Z74+AD74*W74*X74*Y74*Z74</f>
+        <v>1155584</v>
+      </c>
+      <c r="AJ74" s="12">
+        <f t="shared" ref="AJ74:AJ77" si="72">F74*M74*L74*G74*N74*B74</f>
+        <v>7488</v>
+      </c>
+      <c r="AK74" s="12">
+        <f t="shared" ref="AK74:AK77" si="73">_xlfn.CEILING.MATH(C74/16)</f>
+        <v>1</v>
+      </c>
+      <c r="AL74" s="12">
+        <f t="shared" ref="AL74:AL77" si="74">O74/L74/16</f>
+        <v>1</v>
+      </c>
+      <c r="AM74" s="12">
+        <f t="shared" ref="AM74:AM77" si="75">AK74*AL74*H74*P74</f>
+        <v>8</v>
+      </c>
+      <c r="AN74" s="12">
+        <f>AM74*AJ74*Z74*Y74*X74*W74</f>
+        <v>1916928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" s="8">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>64</v>
+      </c>
+      <c r="P75">
+        <v>4</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>256</v>
+      </c>
+      <c r="S75" s="6">
+        <f>_xlfn.CEILING.MATH(R75*I75/16)</f>
+        <v>32</v>
+      </c>
+      <c r="T75">
+        <v>13</v>
+      </c>
+      <c r="U75">
+        <v>13</v>
+      </c>
+      <c r="V75">
+        <v>256</v>
+      </c>
+      <c r="W75" s="6">
+        <f t="shared" si="59"/>
+        <v>8</v>
+      </c>
+      <c r="X75" s="6">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="Y75" s="6">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="Z75" s="6">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="AA75" s="6">
+        <f t="shared" si="63"/>
+        <v>21632</v>
+      </c>
+      <c r="AB75" s="6">
+        <f t="shared" si="64"/>
+        <v>43264</v>
+      </c>
+      <c r="AC75" s="6">
+        <f t="shared" si="65"/>
+        <v>28800</v>
+      </c>
+      <c r="AD75" s="6">
+        <f t="shared" si="66"/>
+        <v>4608</v>
+      </c>
+      <c r="AE75" s="6">
+        <f t="shared" si="67"/>
+        <v>480</v>
+      </c>
+      <c r="AF75" s="6">
+        <f t="shared" si="68"/>
+        <v>288</v>
+      </c>
+      <c r="AG75" s="6">
+        <f t="shared" si="69"/>
+        <v>52</v>
+      </c>
+      <c r="AH75" s="6">
+        <f t="shared" si="70"/>
+        <v>76672</v>
+      </c>
+      <c r="AI75" s="6">
+        <f t="shared" si="71"/>
+        <v>1155584</v>
+      </c>
+      <c r="AJ75" s="12">
+        <f t="shared" si="72"/>
+        <v>7488</v>
+      </c>
+      <c r="AK75" s="12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AL75" s="12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM75" s="12">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AN75" s="12">
+        <f t="shared" ref="AN75:AN77" si="76">AM75*AJ75*Z75*Y75*X75*W75</f>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" s="8">
+        <v>4</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>3</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>64</v>
+      </c>
+      <c r="P76">
+        <v>4</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>256</v>
+      </c>
+      <c r="S76" s="6">
+        <f>_xlfn.CEILING.MATH(R76*I76/16)</f>
+        <v>64</v>
+      </c>
+      <c r="T76">
+        <v>13</v>
+      </c>
+      <c r="U76">
+        <v>13</v>
+      </c>
+      <c r="V76">
+        <v>256</v>
+      </c>
+      <c r="W76" s="6">
+        <f t="shared" si="59"/>
+        <v>16</v>
+      </c>
+      <c r="X76" s="6">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="Y76" s="6">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="Z76" s="6">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="AA76" s="6">
+        <f t="shared" si="63"/>
+        <v>21632</v>
+      </c>
+      <c r="AB76" s="6">
+        <f t="shared" si="64"/>
+        <v>43264</v>
+      </c>
+      <c r="AC76" s="6">
+        <f t="shared" si="65"/>
+        <v>14400</v>
+      </c>
+      <c r="AD76" s="6">
+        <f t="shared" si="66"/>
+        <v>4608</v>
+      </c>
+      <c r="AE76" s="6">
+        <f t="shared" si="67"/>
+        <v>240</v>
+      </c>
+      <c r="AF76" s="6">
+        <f t="shared" si="68"/>
+        <v>288</v>
+      </c>
+      <c r="AG76" s="6">
+        <f t="shared" si="69"/>
+        <v>52</v>
+      </c>
+      <c r="AH76" s="6">
+        <f t="shared" si="70"/>
+        <v>62272</v>
+      </c>
+      <c r="AI76" s="6">
+        <f t="shared" si="71"/>
+        <v>1303040</v>
+      </c>
+      <c r="AJ76" s="12">
+        <f t="shared" si="72"/>
+        <v>3744</v>
+      </c>
+      <c r="AK76" s="12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AL76" s="12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM76" s="12">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AN76" s="12">
+        <f t="shared" si="76"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" s="8">
+        <v>8</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>64</v>
+      </c>
+      <c r="P77">
+        <v>4</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>256</v>
+      </c>
+      <c r="S77" s="6">
+        <f>_xlfn.CEILING.MATH(R77*I77/16)</f>
+        <v>128</v>
+      </c>
+      <c r="T77">
+        <v>13</v>
+      </c>
+      <c r="U77">
+        <v>13</v>
+      </c>
+      <c r="V77">
+        <v>256</v>
+      </c>
+      <c r="W77" s="6">
+        <f t="shared" si="59"/>
+        <v>32</v>
+      </c>
+      <c r="X77" s="6">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="Y77" s="6">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="Z77" s="6">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="AA77" s="6">
+        <f t="shared" si="63"/>
+        <v>21632</v>
+      </c>
+      <c r="AB77" s="6">
+        <f t="shared" si="64"/>
+        <v>43264</v>
+      </c>
+      <c r="AC77" s="6">
+        <f t="shared" si="65"/>
+        <v>7200</v>
+      </c>
+      <c r="AD77" s="6">
+        <f t="shared" si="66"/>
+        <v>4608</v>
+      </c>
+      <c r="AE77" s="6">
+        <f t="shared" si="67"/>
+        <v>120</v>
+      </c>
+      <c r="AF77" s="6">
+        <f t="shared" si="68"/>
+        <v>288</v>
+      </c>
+      <c r="AG77" s="6">
+        <f t="shared" si="69"/>
+        <v>52</v>
+      </c>
+      <c r="AH77" s="6">
+        <f t="shared" si="70"/>
+        <v>55072</v>
+      </c>
+      <c r="AI77" s="6">
+        <f t="shared" si="71"/>
+        <v>1597952</v>
+      </c>
+      <c r="AJ77" s="12">
+        <f t="shared" si="72"/>
+        <v>1872</v>
+      </c>
+      <c r="AK77" s="12">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="AL77" s="12">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="AM77" s="12">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="AN77" s="12">
+        <f t="shared" si="76"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" s="8">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79">
+        <v>64</v>
+      </c>
+      <c r="P79">
+        <v>4</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>256</v>
+      </c>
+      <c r="S79" s="6">
+        <f>_xlfn.CEILING.MATH(R79*I79/16)</f>
+        <v>16</v>
+      </c>
+      <c r="T79">
+        <v>13</v>
+      </c>
+      <c r="U79">
+        <v>13</v>
+      </c>
+      <c r="V79">
+        <v>256</v>
+      </c>
+      <c r="W79" s="6">
+        <f t="shared" ref="W79:W82" si="77">_xlfn.CEILING.MATH(S79/F79)</f>
+        <v>8</v>
+      </c>
+      <c r="X79" s="6">
+        <f t="shared" ref="X79:X82" si="78">_xlfn.CEILING.MATH(T79/B79)*_xlfn.CEILING.MATH(U79/C79)</f>
+        <v>1</v>
+      </c>
+      <c r="Y79" s="6">
+        <f t="shared" ref="Y79:Y82" si="79">$D$2/P79</f>
+        <v>1</v>
+      </c>
+      <c r="Z79" s="6">
+        <f t="shared" ref="Z79:Z82" si="80">_xlfn.CEILING.MATH(V79/O79)</f>
+        <v>4</v>
+      </c>
+      <c r="AA79" s="6">
+        <f t="shared" ref="AA79:AA82" si="81">2*(J79/16)*O79*C79*B79*P79</f>
+        <v>21632</v>
+      </c>
+      <c r="AB79" s="6">
+        <f t="shared" ref="AB79:AB82" si="82">Q79*C79*B79*O79*P79</f>
+        <v>43264</v>
+      </c>
+      <c r="AC79" s="6">
+        <f t="shared" ref="AC79:AC82" si="83">2*(D79*E79*G79*P79*F79)</f>
+        <v>21600</v>
+      </c>
+      <c r="AD79" s="6">
+        <f t="shared" ref="AD79:AD82" si="84">2*(O79*N79*M79*H79*F79)</f>
+        <v>4608</v>
+      </c>
+      <c r="AE79" s="6">
+        <f t="shared" ref="AE79:AE82" si="85">2*E79*F79*G79*K79</f>
+        <v>360</v>
+      </c>
+      <c r="AF79" s="6">
+        <f t="shared" ref="AF79:AF82" si="86">2*L79*M79*N79*F79</f>
+        <v>144</v>
+      </c>
+      <c r="AG79" s="6">
+        <f t="shared" ref="AG79:AG82" si="87">B79*L79*Q79</f>
+        <v>52</v>
+      </c>
+      <c r="AH79" s="6">
+        <f t="shared" ref="AH79:AH82" si="88">AB79+AC79+AD79</f>
+        <v>69472</v>
+      </c>
+      <c r="AI79" s="6">
+        <f t="shared" ref="AI79:AI82" si="89">AA79*X79*Y79*Z79+AC79*W79*X79*Y79*Z79+AD79*W79*X79*Y79*Z79</f>
+        <v>925184</v>
+      </c>
+      <c r="AJ79" s="12">
+        <f t="shared" ref="AJ79:AJ82" si="90">F79*M79*L79*G79*N79*B79</f>
+        <v>5616</v>
+      </c>
+      <c r="AK79" s="12">
+        <f t="shared" ref="AK79:AK82" si="91">_xlfn.CEILING.MATH(C79/16)</f>
+        <v>1</v>
+      </c>
+      <c r="AL79" s="12">
+        <f t="shared" ref="AL79:AL82" si="92">O79/L79/16</f>
+        <v>1</v>
+      </c>
+      <c r="AM79" s="12">
+        <f t="shared" ref="AM79:AM82" si="93">AK79*AL79*H79*P79</f>
+        <v>8</v>
+      </c>
+      <c r="AN79" s="12">
+        <f t="shared" ref="AN79:AN82" si="94">AM79*AJ79*Z79*Y79*X79*W79</f>
+        <v>1437696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="8">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>64</v>
+      </c>
+      <c r="P80">
+        <v>4</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>256</v>
+      </c>
+      <c r="S80" s="6">
+        <f>_xlfn.CEILING.MATH(R80*I80/16)</f>
+        <v>32</v>
+      </c>
+      <c r="T80">
+        <v>13</v>
+      </c>
+      <c r="U80">
+        <v>13</v>
+      </c>
+      <c r="V80">
+        <v>256</v>
+      </c>
+      <c r="W80" s="6">
+        <f t="shared" si="77"/>
+        <v>8</v>
+      </c>
+      <c r="X80" s="6">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="Y80" s="6">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="6">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="AA80" s="6">
+        <f t="shared" si="81"/>
+        <v>21632</v>
+      </c>
+      <c r="AB80" s="6">
+        <f t="shared" si="82"/>
+        <v>43264</v>
+      </c>
+      <c r="AC80" s="6">
+        <f t="shared" si="83"/>
+        <v>21600</v>
+      </c>
+      <c r="AD80" s="6">
+        <f t="shared" si="84"/>
+        <v>4608</v>
+      </c>
+      <c r="AE80" s="6">
+        <f t="shared" si="85"/>
+        <v>360</v>
+      </c>
+      <c r="AF80" s="6">
+        <f t="shared" si="86"/>
+        <v>288</v>
+      </c>
+      <c r="AG80" s="6">
+        <f t="shared" si="87"/>
+        <v>52</v>
+      </c>
+      <c r="AH80" s="6">
+        <f t="shared" si="88"/>
+        <v>69472</v>
+      </c>
+      <c r="AI80" s="6">
+        <f t="shared" si="89"/>
+        <v>925184</v>
+      </c>
+      <c r="AJ80" s="12">
+        <f t="shared" si="90"/>
+        <v>5616</v>
+      </c>
+      <c r="AK80" s="12">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="AL80" s="12">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AM80" s="12">
+        <f t="shared" si="93"/>
+        <v>4</v>
+      </c>
+      <c r="AN80" s="12">
+        <f t="shared" si="94"/>
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81" s="8">
+        <v>4</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>64</v>
+      </c>
+      <c r="P81">
+        <v>4</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>256</v>
+      </c>
+      <c r="S81" s="6">
+        <f>_xlfn.CEILING.MATH(R81*I81/16)</f>
+        <v>64</v>
+      </c>
+      <c r="T81">
+        <v>13</v>
+      </c>
+      <c r="U81">
+        <v>13</v>
+      </c>
+      <c r="V81">
+        <v>256</v>
+      </c>
+      <c r="W81" s="6">
+        <f t="shared" si="77"/>
+        <v>16</v>
+      </c>
+      <c r="X81" s="6">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="Y81" s="6">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="6">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="AA81" s="6">
+        <f t="shared" si="81"/>
+        <v>21632</v>
+      </c>
+      <c r="AB81" s="6">
+        <f t="shared" si="82"/>
+        <v>43264</v>
+      </c>
+      <c r="AC81" s="6">
+        <f t="shared" si="83"/>
+        <v>14400</v>
+      </c>
+      <c r="AD81" s="6">
+        <f t="shared" si="84"/>
+        <v>4608</v>
+      </c>
+      <c r="AE81" s="6">
+        <f t="shared" si="85"/>
+        <v>240</v>
+      </c>
+      <c r="AF81" s="6">
+        <f t="shared" si="86"/>
+        <v>288</v>
+      </c>
+      <c r="AG81" s="6">
+        <f t="shared" si="87"/>
+        <v>52</v>
+      </c>
+      <c r="AH81" s="6">
+        <f t="shared" si="88"/>
+        <v>62272</v>
+      </c>
+      <c r="AI81" s="6">
+        <f t="shared" si="89"/>
+        <v>1303040</v>
+      </c>
+      <c r="AJ81" s="12">
+        <f t="shared" si="90"/>
+        <v>3744</v>
+      </c>
+      <c r="AK81" s="12">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="AL81" s="12">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AM81" s="12">
+        <f t="shared" si="93"/>
+        <v>4</v>
+      </c>
+      <c r="AN81" s="12">
+        <f t="shared" si="94"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" s="8">
+        <v>8</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>64</v>
+      </c>
+      <c r="P82">
+        <v>4</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>256</v>
+      </c>
+      <c r="S82" s="6">
+        <f>_xlfn.CEILING.MATH(R82*I82/16)</f>
+        <v>128</v>
+      </c>
+      <c r="T82">
+        <v>13</v>
+      </c>
+      <c r="U82">
+        <v>13</v>
+      </c>
+      <c r="V82">
+        <v>256</v>
+      </c>
+      <c r="W82" s="6">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="X82" s="6">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="Y82" s="6">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="Z82" s="6">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="AA82" s="6">
+        <f t="shared" si="81"/>
+        <v>21632</v>
+      </c>
+      <c r="AB82" s="6">
+        <f t="shared" si="82"/>
+        <v>43264</v>
+      </c>
+      <c r="AC82" s="6">
+        <f t="shared" si="83"/>
+        <v>7200</v>
+      </c>
+      <c r="AD82" s="6">
+        <f t="shared" si="84"/>
+        <v>4608</v>
+      </c>
+      <c r="AE82" s="6">
+        <f t="shared" si="85"/>
+        <v>120</v>
+      </c>
+      <c r="AF82" s="6">
+        <f t="shared" si="86"/>
+        <v>288</v>
+      </c>
+      <c r="AG82" s="6">
+        <f t="shared" si="87"/>
+        <v>52</v>
+      </c>
+      <c r="AH82" s="6">
+        <f t="shared" si="88"/>
+        <v>55072</v>
+      </c>
+      <c r="AI82" s="6">
+        <f t="shared" si="89"/>
+        <v>1597952</v>
+      </c>
+      <c r="AJ82" s="12">
+        <f t="shared" si="90"/>
+        <v>1872</v>
+      </c>
+      <c r="AK82" s="12">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="AL82" s="12">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="AM82" s="12">
+        <f t="shared" si="93"/>
+        <v>4</v>
+      </c>
+      <c r="AN82" s="12">
+        <f t="shared" si="94"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>8</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="8">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84">
+        <v>64</v>
+      </c>
+      <c r="P84">
+        <v>4</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>256</v>
+      </c>
+      <c r="S84" s="6">
+        <f>_xlfn.CEILING.MATH(R84*I84/16)</f>
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <v>13</v>
+      </c>
+      <c r="U84">
+        <v>13</v>
+      </c>
+      <c r="V84">
+        <v>256</v>
+      </c>
+      <c r="W84" s="6">
+        <f t="shared" ref="W84:W87" si="95">_xlfn.CEILING.MATH(S84/F84)</f>
+        <v>8</v>
+      </c>
+      <c r="X84" s="6">
+        <f t="shared" ref="X84:X87" si="96">_xlfn.CEILING.MATH(T84/B84)*_xlfn.CEILING.MATH(U84/C84)</f>
+        <v>1</v>
+      </c>
+      <c r="Y84" s="6">
+        <f t="shared" ref="Y84:Y87" si="97">$D$2/P84</f>
+        <v>1</v>
+      </c>
+      <c r="Z84" s="6">
+        <f t="shared" ref="Z84:Z87" si="98">_xlfn.CEILING.MATH(V84/O84)</f>
+        <v>4</v>
+      </c>
+      <c r="AA84" s="6">
+        <f t="shared" ref="AA84:AA87" si="99">2*(J84/16)*O84*C84*B84*P84</f>
+        <v>21632</v>
+      </c>
+      <c r="AB84" s="6">
+        <f t="shared" ref="AB84:AB87" si="100">Q84*C84*B84*O84*P84</f>
+        <v>43264</v>
+      </c>
+      <c r="AC84" s="6">
+        <f t="shared" ref="AC84:AC87" si="101">2*(D84*E84*G84*P84*F84)</f>
+        <v>28800</v>
+      </c>
+      <c r="AD84" s="6">
+        <f t="shared" ref="AD84:AD87" si="102">2*(O84*N84*M84*H84*F84)</f>
+        <v>2304</v>
+      </c>
+      <c r="AE84" s="6">
+        <f t="shared" ref="AE84:AE87" si="103">2*E84*F84*G84*K84</f>
+        <v>480</v>
+      </c>
+      <c r="AF84" s="6">
+        <f t="shared" ref="AF84:AF87" si="104">2*L84*M84*N84*F84</f>
+        <v>144</v>
+      </c>
+      <c r="AG84" s="6">
+        <f t="shared" ref="AG84:AG87" si="105">B84*L84*Q84</f>
+        <v>52</v>
+      </c>
+      <c r="AH84" s="6">
+        <f t="shared" ref="AH84:AH87" si="106">AB84+AC84+AD84</f>
+        <v>74368</v>
+      </c>
+      <c r="AI84" s="6">
+        <f t="shared" ref="AI84:AI87" si="107">AA84*X84*Y84*Z84+AC84*W84*X84*Y84*Z84+AD84*W84*X84*Y84*Z84</f>
+        <v>1081856</v>
+      </c>
+      <c r="AJ84" s="12">
+        <f t="shared" ref="AJ84:AJ87" si="108">F84*M84*L84*G84*N84*B84</f>
+        <v>7488</v>
+      </c>
+      <c r="AK84" s="12">
+        <f t="shared" ref="AK84:AK87" si="109">_xlfn.CEILING.MATH(C84/16)</f>
+        <v>1</v>
+      </c>
+      <c r="AL84" s="12">
+        <f t="shared" ref="AL84:AL87" si="110">O84/L84/16</f>
+        <v>1</v>
+      </c>
+      <c r="AM84" s="12">
+        <f>AK84*AL84*H84*P84</f>
+        <v>4</v>
+      </c>
+      <c r="AN84" s="12">
+        <f t="shared" ref="AN84:AN87" si="111">AM84*AJ84*Z84*Y84*X84*W84</f>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" s="8">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>64</v>
+      </c>
+      <c r="P85">
+        <v>4</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>256</v>
+      </c>
+      <c r="S85" s="6">
+        <f>_xlfn.CEILING.MATH(R85*I85/16)</f>
+        <v>32</v>
+      </c>
+      <c r="T85">
+        <v>13</v>
+      </c>
+      <c r="U85">
+        <v>13</v>
+      </c>
+      <c r="V85">
+        <v>256</v>
+      </c>
+      <c r="W85" s="6">
+        <f t="shared" si="95"/>
+        <v>8</v>
+      </c>
+      <c r="X85" s="6">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y85" s="6">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="Z85" s="6">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="AA85" s="6">
+        <f t="shared" si="99"/>
+        <v>21632</v>
+      </c>
+      <c r="AB85" s="6">
+        <f t="shared" si="100"/>
+        <v>43264</v>
+      </c>
+      <c r="AC85" s="6">
+        <f t="shared" si="101"/>
+        <v>28800</v>
+      </c>
+      <c r="AD85" s="6">
+        <f t="shared" si="102"/>
+        <v>4608</v>
+      </c>
+      <c r="AE85" s="6">
+        <f t="shared" si="103"/>
+        <v>480</v>
+      </c>
+      <c r="AF85" s="6">
+        <f t="shared" si="104"/>
+        <v>288</v>
+      </c>
+      <c r="AG85" s="6">
+        <f t="shared" si="105"/>
+        <v>52</v>
+      </c>
+      <c r="AH85" s="6">
+        <f t="shared" si="106"/>
+        <v>76672</v>
+      </c>
+      <c r="AI85" s="6">
+        <f t="shared" si="107"/>
+        <v>1155584</v>
+      </c>
+      <c r="AJ85" s="12">
+        <f t="shared" si="108"/>
+        <v>7488</v>
+      </c>
+      <c r="AK85" s="12">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AL85" s="12">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="AM85" s="12">
+        <f t="shared" ref="AM85:AM87" si="112">AK85*AL85*H85*P85</f>
+        <v>4</v>
+      </c>
+      <c r="AN85" s="12">
+        <f t="shared" si="111"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>15</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" s="8">
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>64</v>
+      </c>
+      <c r="P86">
+        <v>4</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>256</v>
+      </c>
+      <c r="S86" s="6">
+        <f>_xlfn.CEILING.MATH(R86*I86/16)</f>
+        <v>64</v>
+      </c>
+      <c r="T86">
+        <v>13</v>
+      </c>
+      <c r="U86">
+        <v>13</v>
+      </c>
+      <c r="V86">
+        <v>256</v>
+      </c>
+      <c r="W86" s="6">
+        <f t="shared" si="95"/>
+        <v>16</v>
+      </c>
+      <c r="X86" s="6">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y86" s="6">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="Z86" s="6">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="AA86" s="6">
+        <f t="shared" si="99"/>
+        <v>21632</v>
+      </c>
+      <c r="AB86" s="6">
+        <f t="shared" si="100"/>
+        <v>43264</v>
+      </c>
+      <c r="AC86" s="6">
+        <f t="shared" si="101"/>
+        <v>14400</v>
+      </c>
+      <c r="AD86" s="6">
+        <f t="shared" si="102"/>
+        <v>4608</v>
+      </c>
+      <c r="AE86" s="6">
+        <f t="shared" si="103"/>
+        <v>240</v>
+      </c>
+      <c r="AF86" s="6">
+        <f t="shared" si="104"/>
+        <v>288</v>
+      </c>
+      <c r="AG86" s="6">
+        <f t="shared" si="105"/>
+        <v>52</v>
+      </c>
+      <c r="AH86" s="6">
+        <f t="shared" si="106"/>
+        <v>62272</v>
+      </c>
+      <c r="AI86" s="6">
+        <f t="shared" si="107"/>
+        <v>1303040</v>
+      </c>
+      <c r="AJ86" s="12">
+        <f t="shared" si="108"/>
+        <v>3744</v>
+      </c>
+      <c r="AK86" s="12">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AL86" s="12">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="AM86" s="12">
+        <f t="shared" si="112"/>
+        <v>4</v>
+      </c>
+      <c r="AN86" s="12">
+        <f t="shared" si="111"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87" s="8">
+        <v>8</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>3</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>64</v>
+      </c>
+      <c r="P87">
+        <v>4</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>256</v>
+      </c>
+      <c r="S87" s="6">
+        <f>_xlfn.CEILING.MATH(R87*I87/16)</f>
+        <v>128</v>
+      </c>
+      <c r="T87">
+        <v>13</v>
+      </c>
+      <c r="U87">
+        <v>13</v>
+      </c>
+      <c r="V87">
+        <v>256</v>
+      </c>
+      <c r="W87" s="6">
+        <f t="shared" si="95"/>
+        <v>32</v>
+      </c>
+      <c r="X87" s="6">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="Y87" s="6">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="Z87" s="6">
+        <f t="shared" si="98"/>
+        <v>4</v>
+      </c>
+      <c r="AA87" s="6">
+        <f t="shared" si="99"/>
+        <v>21632</v>
+      </c>
+      <c r="AB87" s="6">
+        <f t="shared" si="100"/>
+        <v>43264</v>
+      </c>
+      <c r="AC87" s="6">
+        <f t="shared" si="101"/>
+        <v>7200</v>
+      </c>
+      <c r="AD87" s="6">
+        <f t="shared" si="102"/>
+        <v>4608</v>
+      </c>
+      <c r="AE87" s="6">
+        <f t="shared" si="103"/>
+        <v>120</v>
+      </c>
+      <c r="AF87" s="6">
+        <f t="shared" si="104"/>
+        <v>288</v>
+      </c>
+      <c r="AG87" s="6">
+        <f t="shared" si="105"/>
+        <v>52</v>
+      </c>
+      <c r="AH87" s="6">
+        <f t="shared" si="106"/>
+        <v>55072</v>
+      </c>
+      <c r="AI87" s="6">
+        <f t="shared" si="107"/>
+        <v>1597952</v>
+      </c>
+      <c r="AJ87" s="12">
+        <f t="shared" si="108"/>
+        <v>1872</v>
+      </c>
+      <c r="AK87" s="12">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="AL87" s="12">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="AM87" s="12">
+        <f t="shared" si="112"/>
+        <v>4</v>
+      </c>
+      <c r="AN87" s="12">
+        <f t="shared" si="111"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" s="8">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>64</v>
+      </c>
+      <c r="P89">
+        <v>4</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>256</v>
+      </c>
+      <c r="S89" s="6">
+        <f>_xlfn.CEILING.MATH(R89*I89/16)</f>
+        <v>16</v>
+      </c>
+      <c r="T89">
+        <v>13</v>
+      </c>
+      <c r="U89">
+        <v>13</v>
+      </c>
+      <c r="V89">
+        <v>256</v>
+      </c>
+      <c r="W89" s="6">
+        <f t="shared" ref="W89:W92" si="113">_xlfn.CEILING.MATH(S89/F89)</f>
+        <v>8</v>
+      </c>
+      <c r="X89" s="6">
+        <f t="shared" ref="X89:X92" si="114">_xlfn.CEILING.MATH(T89/B89)*_xlfn.CEILING.MATH(U89/C89)</f>
+        <v>1</v>
+      </c>
+      <c r="Y89" s="6">
+        <f t="shared" ref="Y89:Y92" si="115">$D$2/P89</f>
+        <v>1</v>
+      </c>
+      <c r="Z89" s="6">
+        <f t="shared" ref="Z89:Z92" si="116">_xlfn.CEILING.MATH(V89/O89)</f>
+        <v>4</v>
+      </c>
+      <c r="AA89" s="6">
+        <f t="shared" ref="AA89:AA92" si="117">2*(J89/16)*O89*C89*B89*P89</f>
+        <v>21632</v>
+      </c>
+      <c r="AB89" s="6">
+        <f t="shared" ref="AB89:AB92" si="118">Q89*C89*B89*O89*P89</f>
+        <v>43264</v>
+      </c>
+      <c r="AC89" s="6">
+        <f t="shared" ref="AC89:AC92" si="119">2*(D89*E89*G89*P89*F89)</f>
+        <v>21600</v>
+      </c>
+      <c r="AD89" s="6">
+        <f t="shared" ref="AD89:AD92" si="120">2*(O89*N89*M89*H89*F89)</f>
+        <v>2304</v>
+      </c>
+      <c r="AE89" s="6">
+        <f t="shared" ref="AE89:AE92" si="121">2*E89*F89*G89*K89</f>
+        <v>360</v>
+      </c>
+      <c r="AF89" s="6">
+        <f t="shared" ref="AF89:AF92" si="122">2*L89*M89*N89*F89</f>
+        <v>144</v>
+      </c>
+      <c r="AG89" s="6">
+        <f t="shared" ref="AG89:AG92" si="123">B89*L89*Q89</f>
+        <v>52</v>
+      </c>
+      <c r="AH89" s="6">
+        <f t="shared" ref="AH89:AH92" si="124">AB89+AC89+AD89</f>
+        <v>67168</v>
+      </c>
+      <c r="AI89" s="6">
+        <f t="shared" ref="AI89:AI92" si="125">AA89*X89*Y89*Z89+AC89*W89*X89*Y89*Z89+AD89*W89*X89*Y89*Z89</f>
+        <v>851456</v>
+      </c>
+      <c r="AJ89" s="12">
+        <f t="shared" ref="AJ89:AJ92" si="126">F89*M89*L89*G89*N89*B89</f>
+        <v>5616</v>
+      </c>
+      <c r="AK89" s="12">
+        <f t="shared" ref="AK89:AK92" si="127">_xlfn.CEILING.MATH(C89/16)</f>
+        <v>1</v>
+      </c>
+      <c r="AL89" s="12">
+        <f t="shared" ref="AL89:AL92" si="128">O89/L89/16</f>
+        <v>1</v>
+      </c>
+      <c r="AM89" s="12">
+        <f t="shared" ref="AM89:AM92" si="129">AK89*AL89*H89*P89</f>
+        <v>4</v>
+      </c>
+      <c r="AN89" s="12">
+        <f t="shared" ref="AN89:AN92" si="130">AM89*AJ89*Z89*Y89*X89*W89</f>
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="E90">
+        <v>15</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="8">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>64</v>
+      </c>
+      <c r="P90">
+        <v>4</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>256</v>
+      </c>
+      <c r="S90" s="6">
+        <f>_xlfn.CEILING.MATH(R90*I90/16)</f>
+        <v>32</v>
+      </c>
+      <c r="T90">
+        <v>13</v>
+      </c>
+      <c r="U90">
+        <v>13</v>
+      </c>
+      <c r="V90">
+        <v>256</v>
+      </c>
+      <c r="W90" s="6">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="X90" s="6">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="Y90" s="6">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="Z90" s="6">
+        <f t="shared" si="116"/>
+        <v>4</v>
+      </c>
+      <c r="AA90" s="6">
+        <f t="shared" si="117"/>
+        <v>21632</v>
+      </c>
+      <c r="AB90" s="6">
+        <f t="shared" si="118"/>
+        <v>43264</v>
+      </c>
+      <c r="AC90" s="6">
+        <f t="shared" si="119"/>
+        <v>21600</v>
+      </c>
+      <c r="AD90" s="6">
+        <f t="shared" si="120"/>
+        <v>4608</v>
+      </c>
+      <c r="AE90" s="6">
+        <f t="shared" si="121"/>
+        <v>360</v>
+      </c>
+      <c r="AF90" s="6">
+        <f t="shared" si="122"/>
+        <v>288</v>
+      </c>
+      <c r="AG90" s="6">
+        <f t="shared" si="123"/>
+        <v>52</v>
+      </c>
+      <c r="AH90" s="6">
+        <f t="shared" si="124"/>
+        <v>69472</v>
+      </c>
+      <c r="AI90" s="6">
+        <f t="shared" si="125"/>
+        <v>925184</v>
+      </c>
+      <c r="AJ90" s="12">
+        <f t="shared" si="126"/>
+        <v>5616</v>
+      </c>
+      <c r="AK90" s="12">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="AL90" s="12">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="AM90" s="12">
+        <f t="shared" si="129"/>
+        <v>4</v>
+      </c>
+      <c r="AN90" s="12">
+        <f t="shared" si="130"/>
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>15</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="8">
+        <v>4</v>
+      </c>
+      <c r="J91">
+        <v>4</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>64</v>
+      </c>
+      <c r="P91">
+        <v>4</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>256</v>
+      </c>
+      <c r="S91" s="6">
+        <f>_xlfn.CEILING.MATH(R91*I91/16)</f>
+        <v>64</v>
+      </c>
+      <c r="T91">
+        <v>13</v>
+      </c>
+      <c r="U91">
+        <v>13</v>
+      </c>
+      <c r="V91">
+        <v>256</v>
+      </c>
+      <c r="W91" s="6">
+        <f t="shared" si="113"/>
+        <v>16</v>
+      </c>
+      <c r="X91" s="6">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="Y91" s="6">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="Z91" s="6">
+        <f t="shared" si="116"/>
+        <v>4</v>
+      </c>
+      <c r="AA91" s="6">
+        <f t="shared" si="117"/>
+        <v>21632</v>
+      </c>
+      <c r="AB91" s="6">
+        <f t="shared" si="118"/>
+        <v>43264</v>
+      </c>
+      <c r="AC91" s="6">
+        <f t="shared" si="119"/>
+        <v>14400</v>
+      </c>
+      <c r="AD91" s="6">
+        <f t="shared" si="120"/>
+        <v>4608</v>
+      </c>
+      <c r="AE91" s="6">
+        <f t="shared" si="121"/>
+        <v>240</v>
+      </c>
+      <c r="AF91" s="6">
+        <f t="shared" si="122"/>
+        <v>288</v>
+      </c>
+      <c r="AG91" s="6">
+        <f t="shared" si="123"/>
+        <v>52</v>
+      </c>
+      <c r="AH91" s="6">
+        <f t="shared" si="124"/>
+        <v>62272</v>
+      </c>
+      <c r="AI91" s="6">
+        <f t="shared" si="125"/>
+        <v>1303040</v>
+      </c>
+      <c r="AJ91" s="12">
+        <f t="shared" si="126"/>
+        <v>3744</v>
+      </c>
+      <c r="AK91" s="12">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="AL91" s="12">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="AM91" s="12">
+        <f t="shared" si="129"/>
+        <v>4</v>
+      </c>
+      <c r="AN91" s="12">
+        <f t="shared" si="130"/>
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92">
+        <v>13</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="8">
+        <v>8</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>64</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>256</v>
+      </c>
+      <c r="S92" s="6">
+        <f>_xlfn.CEILING.MATH(R92*I92/16)</f>
+        <v>128</v>
+      </c>
+      <c r="T92">
+        <v>13</v>
+      </c>
+      <c r="U92">
+        <v>13</v>
+      </c>
+      <c r="V92">
+        <v>256</v>
+      </c>
+      <c r="W92" s="6">
+        <f t="shared" si="113"/>
+        <v>32</v>
+      </c>
+      <c r="X92" s="6">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="Y92" s="6">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="6">
+        <f t="shared" si="116"/>
+        <v>4</v>
+      </c>
+      <c r="AA92" s="6">
+        <f t="shared" si="117"/>
+        <v>21632</v>
+      </c>
+      <c r="AB92" s="6">
+        <f t="shared" si="118"/>
+        <v>43264</v>
+      </c>
+      <c r="AC92" s="6">
+        <f t="shared" si="119"/>
+        <v>7200</v>
+      </c>
+      <c r="AD92" s="6">
+        <f t="shared" si="120"/>
+        <v>4608</v>
+      </c>
+      <c r="AE92" s="6">
+        <f t="shared" si="121"/>
+        <v>120</v>
+      </c>
+      <c r="AF92" s="6">
+        <f t="shared" si="122"/>
+        <v>288</v>
+      </c>
+      <c r="AG92" s="6">
+        <f t="shared" si="123"/>
+        <v>52</v>
+      </c>
+      <c r="AH92" s="6">
+        <f t="shared" si="124"/>
+        <v>55072</v>
+      </c>
+      <c r="AI92" s="6">
+        <f t="shared" si="125"/>
+        <v>1597952</v>
+      </c>
+      <c r="AJ92" s="12">
+        <f t="shared" si="126"/>
+        <v>1872</v>
+      </c>
+      <c r="AK92" s="12">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="AL92" s="12">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="AM92" s="12">
+        <f t="shared" si="129"/>
+        <v>4</v>
+      </c>
+      <c r="AN92" s="12">
+        <f t="shared" si="130"/>
+        <v>958464</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32566,7 +38463,7 @@
   <dimension ref="A1:AR20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS45" sqref="AS45"/>
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32961,7 +38858,7 @@
         <v>288</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" ref="AH4:AH16" si="18">B5*L5*Q5</f>
+        <f t="shared" ref="AH5:AH16" si="18">B5*L5*Q5</f>
         <v>64</v>
       </c>
       <c r="AI5" s="6">
@@ -33871,7 +39768,7 @@
         <v>80512</v>
       </c>
       <c r="AJ11" s="6">
-        <f t="shared" si="11"/>
+        <f>AB11*Y11*Z11*AA11+AD11*X11*Y11*Z11*AA11+AE11*X11*Y11*Z11*AA11</f>
         <v>31719424</v>
       </c>
       <c r="AK11">
@@ -34743,7 +40640,7 @@
   <dimension ref="A2:AO18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35375,7 +41272,7 @@
         <v>384</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" ref="W6:W8" si="15">_xlfn.CEILING.MATH(S8/F8)</f>
+        <f t="shared" ref="W8" si="15">_xlfn.CEILING.MATH(S8/F8)</f>
         <v>24</v>
       </c>
       <c r="X8" s="6">
@@ -35415,11 +41312,11 @@
         <v>144</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" ref="AG6:AG8" si="16">B8*L8*Q8</f>
+        <f t="shared" ref="AG8" si="16">B8*L8*Q8</f>
         <v>52</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" ref="AH6:AH8" si="17">AB8+AC8+AD8</f>
+        <f t="shared" ref="AH8" si="17">AB8+AC8+AD8</f>
         <v>98336</v>
       </c>
       <c r="AI8" s="6">
@@ -36650,8 +42547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40178,10 +46075,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40691,6 +46588,146 @@
         <v>1597952</v>
       </c>
       <c r="D45">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>82</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1155584</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1916928</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="6">
+        <v>1155584</v>
+      </c>
+      <c r="D47" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="6">
+        <v>1303040</v>
+      </c>
+      <c r="D48" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="6">
+        <v>1597952</v>
+      </c>
+      <c r="D49" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>62</v>
+      </c>
+      <c r="C50" s="6">
+        <v>925184</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1437696</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="6">
+        <v>925184</v>
+      </c>
+      <c r="D51" s="12">
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="6">
+        <v>1303040</v>
+      </c>
+      <c r="D52" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="6">
+        <v>1597952</v>
+      </c>
+      <c r="D53" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>81</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1081856</v>
+      </c>
+      <c r="D54" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="6">
+        <v>1303040</v>
+      </c>
+      <c r="D55" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="6">
+        <v>1303040</v>
+      </c>
+      <c r="D56" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="6">
+        <v>1597952</v>
+      </c>
+      <c r="D57" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>61</v>
+      </c>
+      <c r="C58" s="6">
+        <v>851456</v>
+      </c>
+      <c r="D58" s="12">
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="6">
+        <v>925184</v>
+      </c>
+      <c r="D59" s="12">
+        <v>718848</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="6">
+        <v>1303040</v>
+      </c>
+      <c r="D60" s="12">
+        <v>958464</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="6">
+        <v>1597952</v>
+      </c>
+      <c r="D61" s="12">
         <v>958464</v>
       </c>
     </row>
